--- a/src/main/resources/dumy-data/classes.xlsx
+++ b/src/main/resources/dumy-data/classes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cashlog\src\main\resources\dumy-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\springboot-cashlog\src\main\resources\dumy-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C3057-7299-4080-B00A-92B4D071EA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D5465E-82BC-4259-8A4C-2A5FC630F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8938C4D6-AEC3-4C69-8C65-D17839EDFBEC}"/>
   </bookViews>
@@ -56,10 +56,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>SOFTWARE ENGINEER</t>
-  </si>
-  <si>
-    <t>INFORMATION TECHNOLOGY</t>
+    <t>INFORMATION SECURITY</t>
+  </si>
+  <si>
+    <t>SOFTWARE ENGINEERING</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
